--- a/data/trans_camb/P2A_psíq_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,69</t>
+          <t>0,21; 1,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,64</t>
+          <t>0,53; 5,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,15</t>
+          <t>0,48; 3,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,27</t>
+          <t>-0,38; 1,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,78</t>
+          <t>0,26; 6,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,96</t>
+          <t>0,48; 2,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 1,22</t>
+          <t>-0,02; 1,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,2</t>
+          <t>0,66; 4,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,41</t>
+          <t>0,12; 2,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,37</t>
+          <t>-0,36; 1,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,6</t>
+          <t>-0,37; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,7</t>
+          <t>-0,18; 1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,87</t>
+          <t>-0,13; 1,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,48</t>
+          <t>1,03; 4,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,73</t>
+          <t>0,21; 1,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,22</t>
+          <t>-0,03; 1,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,0</t>
+          <t>0,7; 2,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,89; —</t>
+          <t>-26,23; 1514,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-80,94; 867,72</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,19; —</t>
+          <t>-72,16; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,75; —</t>
+          <t>59,76; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,36; 1249,12</t>
+          <t>-2,69; 994,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 779,32</t>
+          <t>-31,98; 744,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,57; 2166,17</t>
+          <t>81,81; 1537,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,76</t>
+          <t>-0,85; 1,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,4</t>
+          <t>-1,68; 0,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,57</t>
+          <t>-0,92; 1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,79</t>
+          <t>0,45; 3,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,1</t>
+          <t>-1,05; 1,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,05</t>
+          <t>0,28; 3,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,27</t>
+          <t>0,25; 2,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,53</t>
+          <t>-0,86; 0,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,03</t>
+          <t>0,1; 2,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,06; 517,34</t>
+          <t>-69,82; 774,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 246,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,21; 705,08</t>
+          <t>-69,97; 543,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 699,19</t>
+          <t>14,97; 716,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,32; 196,51</t>
+          <t>-70,36; 263,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,1; 519,01</t>
+          <t>10,52; 646,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,14; 418,73</t>
+          <t>11,77; 371,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-70,29; 107,58</t>
+          <t>-65,94; 103,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 363,09</t>
+          <t>-0,28; 339,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,2</t>
+          <t>-1,37; 2,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,96</t>
+          <t>-2,3; 0,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,16</t>
+          <t>-0,43; 3,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,6</t>
+          <t>-0,89; 2,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,98</t>
+          <t>-1,94; 1,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,86</t>
+          <t>-0,16; 2,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,94</t>
+          <t>-0,63; 1,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,66</t>
+          <t>-1,54; 0,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 2,47</t>
+          <t>0,2; 2,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,08; 248,99</t>
+          <t>-58,96; 263,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-82,12; 128,56</t>
+          <t>-83,29; 121,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 318,73</t>
+          <t>-25,85; 316,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 264,98</t>
+          <t>-37,82; 282,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-72,28; 127,37</t>
+          <t>-72,84; 127,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 314,53</t>
+          <t>-11,34; 294,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 158,37</t>
+          <t>-30,15; 153,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,29; 67,28</t>
+          <t>-65,82; 55,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,3; 219,23</t>
+          <t>4,95; 220,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,78</t>
+          <t>0,46; 4,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,62</t>
+          <t>-0,18; 2,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,78</t>
+          <t>0,7; 3,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,6</t>
+          <t>-1,42; 2,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,81</t>
+          <t>-1,12; 3,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,06</t>
+          <t>-1,16; 2,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,45</t>
+          <t>0,02; 2,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,21</t>
+          <t>-0,29; 2,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,49</t>
+          <t>0,21; 2,48</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,0; —</t>
+          <t>-11,62; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-76,96; —</t>
+          <t>-55,99; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,7; —</t>
+          <t>4,9; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-64,53; 349,56</t>
+          <t>-59,26; 325,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 451,07</t>
+          <t>-52,33; 441,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 314,05</t>
+          <t>-42,71; 328,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 458,69</t>
+          <t>-13,81; 429,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 403,13</t>
+          <t>-26,4; 387,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,49; 516,99</t>
+          <t>4,83; 447,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,28</t>
+          <t>-0,89; 3,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 0,41</t>
+          <t>-2,55; 0,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,48</t>
+          <t>-0,96; 2,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,5</t>
+          <t>-1,36; 1,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,39</t>
+          <t>-0,72; 2,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,53; 38,23</t>
+          <t>1,56; 34,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,81</t>
+          <t>-0,85; 1,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,2</t>
+          <t>-1,13; 1,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,12; 27,6</t>
+          <t>1,18; 26,4</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 233,13</t>
+          <t>-36,6; 285,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-80,65; 40,74</t>
+          <t>-78,22; 53,85</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 213,37</t>
+          <t>-33,48; 178,6</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-59,31; 148,87</t>
+          <t>-55,66; 158,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 216,29</t>
+          <t>-34,0; 233,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>69,95; 3938,05</t>
+          <t>70,1; 3473,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 131,58</t>
+          <t>-34,08; 131,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 97,4</t>
+          <t>-46,51; 80,62</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>51,26; 2101,0</t>
+          <t>57,12; 1943,44</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,55</t>
+          <t>0,32; 1,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,52</t>
+          <t>-0,48; 0,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,07</t>
+          <t>0,8; 2,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,58</t>
+          <t>0,39; 1,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,1</t>
+          <t>-0,09; 1,08</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,67; 14,59</t>
+          <t>1,65; 14,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,36</t>
+          <t>0,59; 1,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,64</t>
+          <t>-0,15; 0,61</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,25</t>
+          <t>1,48; 8,95</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>17,21; 231,44</t>
+          <t>26,49; 220,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 78,81</t>
+          <t>-41,21; 70,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>49,9; 294,13</t>
+          <t>67,5; 308,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>31,14; 196,34</t>
+          <t>26,76; 183,91</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 128,71</t>
+          <t>-7,26; 124,06</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>133,02; 1630,57</t>
+          <t>129,18; 1346,45</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>42,42; 163,54</t>
+          <t>48,02; 170,67</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 76,05</t>
+          <t>-12,59; 72,08</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>136,43; 942,03</t>
+          <t>137,35; 974,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_psíq_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,44</t>
+          <t>0,51; 5,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,01</t>
+          <t>0,19; 5,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,21</t>
+          <t>0,64; 4,25</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>877,59%</t>
+          <t>825,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1915,16%</t>
+          <t>1881,16%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,37 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,46</t>
         </is>
       </c>
     </row>
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,43</t>
+          <t>-0,39; 2,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,8</t>
+          <t>-0,47; 1,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,7</t>
+          <t>-0,31; 1,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,56</t>
+          <t>0,6; 4,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,68</t>
+          <t>0,12; 1,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,24</t>
+          <t>-0,14; 1,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,79</t>
+          <t>0,54; 2,77</t>
         </is>
       </c>
     </row>
@@ -964,37 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>158,7%</t>
+          <t>141,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>186,14%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>211,15%</t>
+          <t>111,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>738,9%</t>
+          <t>458,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>236,53%</t>
+          <t>182,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>146,02%</t>
+          <t>106,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>429,89%</t>
+          <t>333,78%</t>
         </is>
       </c>
     </row>
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,44; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,16; —</t>
+          <t>-67,18; inf</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,76; —</t>
+          <t>4,05; 2787,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 994,72</t>
+          <t>-4,43; 731,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 744,71</t>
+          <t>-35,95; 593,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,81; 1537,77</t>
+          <t>54,44; 1143,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,55</t>
+          <t>-0,96; 1,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,22</t>
+          <t>-1,0; 1,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,17</t>
+          <t>0,18; 3,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,55</t>
+          <t>-0,83; 0,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,0</t>
+          <t>0,05; 1,91</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>40,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1190,12 +1190,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>156,39%</t>
+          <t>146,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>-10,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>107,33%</t>
+          <t>102,04%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,97; 543,71</t>
+          <t>-67,85; 547,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,12 +1243,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,36; 263,46</t>
+          <t>-66,27; 292,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,52; 646,48</t>
+          <t>3,52; 626,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1258,19 +1258,19 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,94; 103,17</t>
+          <t>-64,24; 115,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 339,15</t>
+          <t>-1,0; 330,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,37 +1290,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1343,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,16</t>
+          <t>-1,63; 2,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,71</t>
+          <t>-1,15; 2,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,07</t>
+          <t>-2,16; 0,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,84</t>
+          <t>-0,63; 2,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,8</t>
+          <t>-0,74; 1,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,56</t>
+          <t>-1,61; 0,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,52</t>
+          <t>-0,67; 1,91</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,34%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>80,19%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-26,09%</t>
+          <t>-30,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>41,7%</t>
         </is>
       </c>
     </row>
@@ -1449,44 +1449,44 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 316,27</t>
+          <t>-57,08; 201,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 282,15</t>
+          <t>-43,89; 216,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-72,84; 127,29</t>
+          <t>-74,99; 83,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 294,51</t>
+          <t>-21,92; 226,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 153,98</t>
+          <t>-31,25; 139,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 55,41</t>
+          <t>-66,98; 49,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,95; 220,65</t>
+          <t>-26,38; 148,83</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,68</t>
+          <t>0,71; 3,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,14</t>
+          <t>-1,25; 1,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,48</t>
+          <t>0,15; 2,4</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>420,68%</t>
+          <t>419,79%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>131,93%</t>
+          <t>124,78%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4,9; —</t>
+          <t>5,14; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 328,32</t>
+          <t>-46,93; 302,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,83; 447,89</t>
+          <t>3,88; 432,27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>12,45</t>
+          <t>34,32</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>21,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,13</t>
+          <t>-0,35; 4,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,53</t>
+          <t>-1,29; 2,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,32</t>
+          <t>-0,34; 3,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,57</t>
+          <t>-1,86; 1,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,48</t>
+          <t>-0,79; 3,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,56; 34,52</t>
+          <t>1,09; 74,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,76</t>
+          <t>-0,53; 2,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,13</t>
+          <t>-0,52; 2,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,18; 26,4</t>
+          <t>1,18; 62,94</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>150,58%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-39,91%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>112,56%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>-19,66%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>711,53%</t>
+          <t>2578,5%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>71,24%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>406,45%</t>
+          <t>1694,7%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 285,46</t>
+          <t>-45,53; 905,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-78,22; 53,85</t>
+          <t>-73,91; 530,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 178,6</t>
+          <t>-30,56; 793,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-55,66; 158,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 233,23</t>
+          <t>-49,02; 618,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>70,1; 3473,9</t>
+          <t>66,03; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 131,44</t>
+          <t>-32,97; 347,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 80,62</t>
+          <t>-31,42; 325,76</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>57,12; 1943,44</t>
+          <t>76,3; 12649,91</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,52</t>
+          <t>-3,51; 3,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,49</t>
+          <t>-6,52; -0,65</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,09</t>
+          <t>-3,57; 2,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,58</t>
+          <t>-2,13; 2,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,08</t>
+          <t>-2,2; 2,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,65; 14,1</t>
+          <t>0,09; 4,54</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,44</t>
+          <t>-1,56; 2,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 0,61</t>
+          <t>-2,73; 0,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,95</t>
+          <t>-0,4; 3,22</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>104,19%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>-80,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>152,8%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>417,32%</t>
+          <t>114,06%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>-31,92%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>308,24%</t>
+          <t>56,31%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-73,4; 255,72</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 0,45</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-67,92; 172,43</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-63,26; 318,96</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-65,68; 377,26</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 438,13</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-47,23; 137,69</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-72,74; 62,58</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 207,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 1,52</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 0,49</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 1,9</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 1,53</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 1,04</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 22,9</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 1,39</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 0,61</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 13,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>104,19%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>132,4%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>78,54%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>38,35%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>601,53%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>89,6%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>23,6%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>405,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>26,49; 220,44</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-41,21; 70,95</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>67,5; 308,81</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>26,76; 183,91</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 124,06</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>129,18; 1346,45</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>48,02; 170,67</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 72,08</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>137,35; 974,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>49,33; 277,39</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>22,25; 170,84</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 111,47</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>114,05; 2237,36</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>43,39; 159,19</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>-12,99; 69,48</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>116,76; 1609,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2A_psíq_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,64</t>
+          <t>0,21; 1,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,63</t>
+          <t>0,43; 6,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,35</t>
+          <t>0,47; 3,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,22</t>
+          <t>-0,39; 1,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,81</t>
+          <t>0,16; 5,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,13</t>
+          <t>0,45; 1,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 1,18</t>
+          <t>-0,02; 1,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,25</t>
+          <t>0,67; 4,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 2,28</t>
+          <t>0,19; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,35</t>
+          <t>-0,39; 1,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,31</t>
+          <t>-0,26; 2,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,66</t>
+          <t>-0,35; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,58</t>
+          <t>-0,3; 1,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,35</t>
+          <t>0,63; 4,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,63</t>
+          <t>0,12; 1,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,2</t>
+          <t>-0,1; 1,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,77</t>
+          <t>0,51; 2,83</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 1514,14</t>
+          <t>-9,57; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,94; 867,72</t>
+          <t>-77,46; 983,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,44; —</t>
+          <t>-79,01; 1130,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,18; inf</t>
+          <t>-55,99; 937,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 2787,78</t>
+          <t>26,33; 2650,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 731,89</t>
+          <t>-0,04; 754,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 593,28</t>
+          <t>-31,96; 514,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,44; 1143,8</t>
+          <t>41,72; 1259,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,83</t>
+          <t>-0,84; 1,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,4</t>
+          <t>-1,57; 0,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,53</t>
+          <t>-0,84; 1,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,62</t>
+          <t>0,43; 3,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,38</t>
+          <t>-0,97; 1,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,04</t>
+          <t>0,25; 2,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,18</t>
+          <t>0,27; 2,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,6</t>
+          <t>-0,92; 0,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,91</t>
+          <t>0,02; 1,89</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,82; 774,13</t>
+          <t>-69,1; 591,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 239,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,85; 547,12</t>
+          <t>-71,44; 617,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,97; 716,11</t>
+          <t>8,61; 574,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 292,78</t>
+          <t>-58,68; 253,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 626,82</t>
+          <t>8,58; 631,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,77; 371,28</t>
+          <t>7,96; 365,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,24; 115,42</t>
+          <t>-65,31; 106,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 330,35</t>
+          <t>-4,8; 330,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,16</t>
+          <t>-1,4; 2,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,79</t>
+          <t>-2,26; 0,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,16</t>
+          <t>-1,81; 2,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,52</t>
+          <t>-1,12; 2,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,88</t>
+          <t>-2,1; 0,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,41</t>
+          <t>-0,73; 2,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,73</t>
+          <t>-0,71; 1,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,52</t>
+          <t>-1,73; 0,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,91</t>
+          <t>-0,65; 1,9</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,96; 263,88</t>
+          <t>-59,4; 227,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,29; 121,89</t>
+          <t>-85,41; 109,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,08; 201,19</t>
+          <t>-58,45; 226,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 216,9</t>
+          <t>-43,93; 247,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,99; 83,02</t>
+          <t>-72,95; 96,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 226,88</t>
+          <t>-25,62; 213,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 139,39</t>
+          <t>-32,91; 146,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,98; 49,95</t>
+          <t>-65,89; 34,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 148,83</t>
+          <t>-30,0; 141,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,07</t>
+          <t>0,53; 3,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,67</t>
+          <t>-0,15; 2,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,69</t>
+          <t>0,79; 3,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,49</t>
+          <t>-1,39; 2,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 3,17</t>
+          <t>-1,34; 2,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,92</t>
+          <t>-1,26; 1,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,54</t>
+          <t>0,1; 2,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,24</t>
+          <t>-0,25; 2,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,4</t>
+          <t>0,22; 2,38</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,62; —</t>
+          <t>-7,01; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,99; —</t>
+          <t>-56,67; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,14; —</t>
+          <t>30,62; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-59,26; 325,96</t>
+          <t>-59,21; 366,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 441,93</t>
+          <t>-56,9; 377,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 302,36</t>
+          <t>-53,26; 317,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 429,7</t>
+          <t>-1,36; 569,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 387,2</t>
+          <t>-22,57; 439,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,88; 432,27</t>
+          <t>1,15; 423,75</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,78</t>
+          <t>-0,27; 4,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,27</t>
+          <t>-1,29; 2,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,27</t>
+          <t>-0,59; 3,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,67</t>
+          <t>-1,67; 1,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,64</t>
+          <t>-0,59; 3,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,09; 74,91</t>
+          <t>1,02; 71,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,49</t>
+          <t>-0,7; 2,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,28</t>
+          <t>-0,43; 2,47</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,18; 62,94</t>
+          <t>1,17; 56,55</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 905,45</t>
+          <t>-30,55; 943,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 530,29</t>
+          <t>-68,51; 548,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 793,41</t>
+          <t>-38,2; 794,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1891,27 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 618,91</t>
+          <t>-46,85; 647,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>66,03; —</t>
+          <t>55,51; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 347,01</t>
+          <t>-40,92; 288,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 325,76</t>
+          <t>-28,68; 332,03</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>76,3; 12649,91</t>
+          <t>72,34; 16227,47</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,86</t>
+          <t>-3,37; 3,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -0,65</t>
+          <t>-5,96; -0,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 2,62</t>
+          <t>-3,64; 2,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,79</t>
+          <t>-2,24; 2,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,75</t>
+          <t>-2,06; 2,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,54</t>
+          <t>-0,23; 4,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,26</t>
+          <t>-1,76; 2,25</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,95</t>
+          <t>-2,84; 0,66</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,22</t>
+          <t>-0,74; 3,14</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-73,4; 255,72</t>
+          <t>-75,56; 254,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,45</t>
+          <t>-100,0; 19,76</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-67,92; 172,43</t>
+          <t>-64,94; 178,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-63,26; 318,96</t>
+          <t>-67,16; 222,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-65,68; 377,26</t>
+          <t>-65,27; 264,23</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 438,13</t>
+          <t>-10,57; 426,57</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 137,69</t>
+          <t>-51,36; 140,87</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-72,74; 62,58</t>
+          <t>-73,27; 51,82</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 207,8</t>
+          <t>-20,11; 207,53</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,52</t>
+          <t>0,31; 1,55</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,49</t>
+          <t>-0,46; 0,51</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,9</t>
+          <t>0,53; 1,9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,53</t>
+          <t>0,33; 1,56</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,04</t>
+          <t>-0,11; 1,02</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,46; 22,9</t>
+          <t>1,48; 24,28</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,39</t>
+          <t>0,48; 1,33</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 0,61</t>
+          <t>-0,13; 0,65</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1,3; 13,84</t>
+          <t>1,26; 14,1</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>26,49; 220,44</t>
+          <t>19,85; 223,93</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 70,95</t>
+          <t>-39,25; 71,14</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>49,33; 277,39</t>
+          <t>43,71; 266,99</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>22,25; 170,84</t>
+          <t>20,86; 164,38</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 111,47</t>
+          <t>-6,87; 112,24</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>114,05; 2237,36</t>
+          <t>120,21; 2712,32</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>43,39; 159,19</t>
+          <t>40,07; 154,51</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 69,48</t>
+          <t>-10,64; 76,2</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>116,76; 1609,53</t>
+          <t>117,6; 1453,47</t>
         </is>
       </c>
     </row>
